--- a/Code/Results/Cases/Case_5_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.06950995624274</v>
+        <v>0.6707215716073449</v>
       </c>
       <c r="C2">
-        <v>0.4634666333041366</v>
+        <v>0.1579930342811906</v>
       </c>
       <c r="D2">
-        <v>0.03177258665958504</v>
+        <v>0.01294316665136108</v>
       </c>
       <c r="E2">
-        <v>0.2282035592421252</v>
+        <v>0.1264417977370798</v>
       </c>
       <c r="F2">
-        <v>0.5778034741914766</v>
+        <v>0.5538072680917523</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8869464515185541</v>
+        <v>0.309925283911106</v>
       </c>
       <c r="N2">
-        <v>0.5486211300580734</v>
+        <v>0.9722120263364395</v>
       </c>
       <c r="O2">
-        <v>1.623366533136107</v>
+        <v>1.797013954961699</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.799209899029165</v>
+        <v>0.5892113537390742</v>
       </c>
       <c r="C3">
-        <v>0.40982917293843</v>
+        <v>0.1408492153979637</v>
       </c>
       <c r="D3">
-        <v>0.02841033232216006</v>
+        <v>0.01180183988999062</v>
       </c>
       <c r="E3">
-        <v>0.199167661074668</v>
+        <v>0.1199290195625125</v>
       </c>
       <c r="F3">
-        <v>0.5204705791923701</v>
+        <v>0.5440222806960406</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7675938786252559</v>
+        <v>0.2762130393736442</v>
       </c>
       <c r="N3">
-        <v>0.5766292956862671</v>
+        <v>0.9838772478457471</v>
       </c>
       <c r="O3">
-        <v>1.480729871248059</v>
+        <v>1.778239503835522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.633627688747794</v>
+        <v>0.5391197371739906</v>
       </c>
       <c r="C4">
-        <v>0.3768875490004575</v>
+        <v>0.1302612413028328</v>
       </c>
       <c r="D4">
-        <v>0.02633974364194813</v>
+        <v>0.01109670045016387</v>
       </c>
       <c r="E4">
-        <v>0.1818157130093851</v>
+        <v>0.1160393710671954</v>
       </c>
       <c r="F4">
-        <v>0.4864683258750873</v>
+        <v>0.5384551950288667</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6948924769857143</v>
+        <v>0.2555826412098554</v>
       </c>
       <c r="N4">
-        <v>0.5948582257782711</v>
+        <v>0.9914898772992515</v>
       </c>
       <c r="O4">
-        <v>1.39705492350393</v>
+        <v>1.768167780096121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.566218713474967</v>
+        <v>0.5186967731641516</v>
       </c>
       <c r="C5">
-        <v>0.3634567328120113</v>
+        <v>0.1259312547790046</v>
       </c>
       <c r="D5">
-        <v>0.02549429433202732</v>
+        <v>0.01080827466468648</v>
       </c>
       <c r="E5">
-        <v>0.1748518158624748</v>
+        <v>0.1144815140420974</v>
       </c>
       <c r="F5">
-        <v>0.4728905805772072</v>
+        <v>0.5362971772272189</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6653894650096746</v>
+        <v>0.2471929050606434</v>
       </c>
       <c r="N5">
-        <v>0.6025371797662871</v>
+        <v>0.994705237091658</v>
       </c>
       <c r="O5">
-        <v>1.363865589555161</v>
+        <v>1.764428586232015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.555028739127351</v>
+        <v>0.5153049630231692</v>
       </c>
       <c r="C6">
-        <v>0.3612260084707373</v>
+        <v>0.1252113452438266</v>
       </c>
       <c r="D6">
-        <v>0.02535380408485821</v>
+        <v>0.01076031742011807</v>
       </c>
       <c r="E6">
-        <v>0.173701585611802</v>
+        <v>0.1142244687087199</v>
       </c>
       <c r="F6">
-        <v>0.470652164299409</v>
+        <v>0.5359455132181949</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6604973246820336</v>
+        <v>0.2458008404967487</v>
       </c>
       <c r="N6">
-        <v>0.60382714320858</v>
+        <v>0.9952459781507095</v>
       </c>
       <c r="O6">
-        <v>1.358407364771381</v>
+        <v>1.763829719546152</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.632718353262646</v>
+        <v>0.5388443462122723</v>
       </c>
       <c r="C7">
-        <v>0.3767064501324739</v>
+        <v>0.1302029072920448</v>
       </c>
       <c r="D7">
-        <v>0.02632834852044752</v>
+        <v>0.01109281496765391</v>
       </c>
       <c r="E7">
-        <v>0.1817213776118081</v>
+        <v>0.1160182514466328</v>
       </c>
       <c r="F7">
-        <v>0.4862841142092549</v>
+        <v>0.5384256437197976</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6944941185641298</v>
+        <v>0.2554694242300357</v>
       </c>
       <c r="N7">
-        <v>0.5949607839370685</v>
+        <v>0.9915327826713778</v>
       </c>
       <c r="O7">
-        <v>1.39660373393815</v>
+        <v>1.768115874978093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.976212742346291</v>
+        <v>0.6426264640834063</v>
       </c>
       <c r="C8">
-        <v>0.4449710745522566</v>
+        <v>0.1520947386414377</v>
       </c>
       <c r="D8">
-        <v>0.03061448066403472</v>
+        <v>0.01255055418335616</v>
       </c>
       <c r="E8">
-        <v>0.2180853080184733</v>
+        <v>0.1241733643581853</v>
       </c>
       <c r="F8">
-        <v>0.5577714510930676</v>
+        <v>0.5503417257165495</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8456587526040593</v>
+        <v>0.2982869307483895</v>
       </c>
       <c r="N8">
-        <v>0.5580586593042725</v>
+        <v>0.9761407452748259</v>
       </c>
       <c r="O8">
-        <v>1.573329800139334</v>
+        <v>1.79023776193705</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.65428907238379</v>
+        <v>0.8457665818863234</v>
       </c>
       <c r="C9">
-        <v>0.5790158337420337</v>
+        <v>0.1945294744799924</v>
       </c>
       <c r="D9">
-        <v>0.03897722783180768</v>
+        <v>0.01537380291156154</v>
       </c>
       <c r="E9">
-        <v>0.2937872146324167</v>
+        <v>0.1410447569340647</v>
       </c>
       <c r="F9">
-        <v>0.708611525693442</v>
+        <v>0.5772216663375076</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.147825765956483</v>
+        <v>0.3828063636020644</v>
       </c>
       <c r="N9">
-        <v>0.4943081589556257</v>
+        <v>0.9495302693902303</v>
       </c>
       <c r="O9">
-        <v>1.954389844575644</v>
+        <v>1.845219442191137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.157414833872622</v>
+        <v>0.9947626019347808</v>
       </c>
       <c r="C10">
-        <v>0.6779808927665272</v>
+        <v>0.2253989016716957</v>
       </c>
       <c r="D10">
-        <v>0.04510604881313185</v>
+        <v>0.01742562688303906</v>
       </c>
       <c r="E10">
-        <v>0.353013097917497</v>
+        <v>0.15399495087199</v>
       </c>
       <c r="F10">
-        <v>0.8276178086040886</v>
+        <v>0.5991339525288168</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.375023440084917</v>
+        <v>0.4452561602039964</v>
       </c>
       <c r="N10">
-        <v>0.4533560720882477</v>
+        <v>0.932159991699514</v>
       </c>
       <c r="O10">
-        <v>2.260654446540258</v>
+        <v>1.892761987288452</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.387911943898416</v>
+        <v>1.062486596629753</v>
       </c>
       <c r="C11">
-        <v>0.7231996587750587</v>
+        <v>0.2393744685263073</v>
       </c>
       <c r="D11">
-        <v>0.04789354446349137</v>
+        <v>0.0183540190977638</v>
       </c>
       <c r="E11">
-        <v>0.3809688536549842</v>
+        <v>0.1600109248143298</v>
       </c>
       <c r="F11">
-        <v>0.8839422520134264</v>
+        <v>0.6095771854180612</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.479926157244904</v>
+        <v>0.4737466196331468</v>
       </c>
       <c r="N11">
-        <v>0.4361569372860004</v>
+        <v>0.9247317984628864</v>
       </c>
       <c r="O11">
-        <v>2.406968139677872</v>
+        <v>1.915959008154346</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.47547675041676</v>
+        <v>1.088123353767685</v>
       </c>
       <c r="C12">
-        <v>0.7403597551822827</v>
+        <v>0.2446568546791639</v>
       </c>
       <c r="D12">
-        <v>0.04894925302924946</v>
+        <v>0.01870484080906465</v>
       </c>
       <c r="E12">
-        <v>0.3917218377417058</v>
+        <v>0.1623072798199132</v>
       </c>
       <c r="F12">
-        <v>0.9056224611445174</v>
+        <v>0.6136004393797947</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.519910761870577</v>
+        <v>0.4845471258391285</v>
       </c>
       <c r="N12">
-        <v>0.4298637718851808</v>
+        <v>0.9219871133193962</v>
       </c>
       <c r="O12">
-        <v>2.463494709770487</v>
+        <v>1.924970030011679</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.456604828621892</v>
+        <v>1.082602427867755</v>
       </c>
       <c r="C13">
-        <v>0.7366622503706139</v>
+        <v>0.2435196400684845</v>
       </c>
       <c r="D13">
-        <v>0.04872187709535325</v>
+        <v>0.01862931835413661</v>
       </c>
       <c r="E13">
-        <v>0.3893982180895748</v>
+        <v>0.1618119031397782</v>
       </c>
       <c r="F13">
-        <v>0.9009369950554174</v>
+        <v>0.6127309027530998</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.511287155316623</v>
+        <v>0.4822205187690543</v>
       </c>
       <c r="N13">
-        <v>0.4312091061716359</v>
+        <v>0.9225751950130245</v>
       </c>
       <c r="O13">
-        <v>2.45126891581171</v>
+        <v>1.92301924019452</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.395110045309877</v>
+        <v>1.064595930777159</v>
       </c>
       <c r="C14">
-        <v>0.7246106448963019</v>
+        <v>0.2398092523784214</v>
       </c>
       <c r="D14">
-        <v>0.04798039399461373</v>
+        <v>0.01838289637426982</v>
       </c>
       <c r="E14">
-        <v>0.3818500388124875</v>
+        <v>0.1601994802296574</v>
       </c>
       <c r="F14">
-        <v>0.8857186325581807</v>
+        <v>0.6099068038609232</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.48321027278827</v>
+        <v>0.4746349473382168</v>
       </c>
       <c r="N14">
-        <v>0.4356347052731451</v>
+        <v>0.9245046239218837</v>
       </c>
       <c r="O14">
-        <v>2.411595458141818</v>
+        <v>1.916695798392567</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.357480722986338</v>
+        <v>1.053565251177645</v>
       </c>
       <c r="C15">
-        <v>0.7172337257774473</v>
+        <v>0.2375352427937401</v>
       </c>
       <c r="D15">
-        <v>0.0475262399739762</v>
+        <v>0.01823185873078614</v>
       </c>
       <c r="E15">
-        <v>0.3772489338239353</v>
+        <v>0.1592142078853698</v>
       </c>
       <c r="F15">
-        <v>0.8764438470392122</v>
+        <v>0.6081859078227723</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.466047429705569</v>
+        <v>0.4699901019325807</v>
       </c>
       <c r="N15">
-        <v>0.4383745718764089</v>
+        <v>0.9256953409738102</v>
       </c>
       <c r="O15">
-        <v>2.38744386120419</v>
+        <v>1.912852078020649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.142387901400127</v>
+        <v>0.9903354920342622</v>
       </c>
       <c r="C16">
-        <v>0.675030421343962</v>
+        <v>0.2244841974915346</v>
       </c>
       <c r="D16">
-        <v>0.04492388704161954</v>
+        <v>0.01736485189061909</v>
       </c>
       <c r="E16">
-        <v>0.3512082689454274</v>
+        <v>0.1536043294146765</v>
       </c>
       <c r="F16">
-        <v>0.8239839725409723</v>
+        <v>0.5984610503703323</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.368202100003174</v>
+        <v>0.4433958892783068</v>
       </c>
       <c r="N16">
-        <v>0.4545100359902179</v>
+        <v>0.9326549809653102</v>
       </c>
       <c r="O16">
-        <v>2.251242841317747</v>
+        <v>1.891277687039491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.010883353142503</v>
+        <v>0.9515313190291863</v>
       </c>
       <c r="C17">
-        <v>0.6491965766238934</v>
+        <v>0.2164604706176476</v>
       </c>
       <c r="D17">
-        <v>0.04332744094217844</v>
+        <v>0.01683167659034979</v>
       </c>
       <c r="E17">
-        <v>0.3355070895517045</v>
+        <v>0.1501950311697868</v>
       </c>
       <c r="F17">
-        <v>0.7923871187468592</v>
+        <v>0.5926170893340554</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.308599560956765</v>
+        <v>0.4271021592477098</v>
       </c>
       <c r="N17">
-        <v>0.464784617501067</v>
+        <v>0.9370458749668131</v>
       </c>
       <c r="O17">
-        <v>2.169557864463343</v>
+        <v>1.878445309108457</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.935395088891823</v>
+        <v>0.9292070599042859</v>
       </c>
       <c r="C18">
-        <v>0.6343558404228986</v>
+        <v>0.2118391327818756</v>
       </c>
       <c r="D18">
-        <v>0.04240914233801618</v>
+        <v>0.0165245396403364</v>
       </c>
       <c r="E18">
-        <v>0.3265702220289626</v>
+        <v>0.1482458291065711</v>
       </c>
       <c r="F18">
-        <v>0.7744170064777762</v>
+        <v>0.5893005104469751</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.274461155650016</v>
+        <v>0.4177381277398808</v>
       </c>
       <c r="N18">
-        <v>0.4708279904613875</v>
+        <v>0.9396159752171513</v>
       </c>
       <c r="O18">
-        <v>2.12322553609701</v>
+        <v>1.87121214483787</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.909860393526003</v>
+        <v>0.9216475976370475</v>
       </c>
       <c r="C19">
-        <v>0.6293339146969004</v>
+        <v>0.2102733511788983</v>
       </c>
       <c r="D19">
-        <v>0.04209820466708436</v>
+        <v>0.01642046854276913</v>
       </c>
       <c r="E19">
-        <v>0.3235598954649603</v>
+        <v>0.1475878699329058</v>
       </c>
       <c r="F19">
-        <v>0.7683665261914143</v>
+        <v>0.5881852444154134</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.262926021432037</v>
+        <v>0.4145689474829481</v>
       </c>
       <c r="N19">
-        <v>0.4728967247259561</v>
+        <v>0.940493819613117</v>
       </c>
       <c r="O19">
-        <v>2.107646609007389</v>
+        <v>1.868788450514785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.024866417085036</v>
+        <v>0.9556626267054185</v>
       </c>
       <c r="C20">
-        <v>0.6519446927403578</v>
+        <v>0.2173152638370084</v>
       </c>
       <c r="D20">
-        <v>0.04349739055461299</v>
+        <v>0.01688848267304621</v>
       </c>
       <c r="E20">
-        <v>0.3371686288562188</v>
+        <v>0.1505567401156824</v>
       </c>
       <c r="F20">
-        <v>0.795729333233183</v>
+        <v>0.5932345592257775</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.314929251444639</v>
+        <v>0.428835858387572</v>
       </c>
       <c r="N20">
-        <v>0.4636769340657878</v>
+        <v>0.9365738428155481</v>
       </c>
       <c r="O20">
-        <v>2.178185219357601</v>
+        <v>1.879796045364685</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.41316454280485</v>
+        <v>1.069885123074243</v>
       </c>
       <c r="C21">
-        <v>0.7281494282349001</v>
+        <v>0.2408993523891922</v>
       </c>
       <c r="D21">
-        <v>0.0481981797518003</v>
+        <v>0.01845529675117774</v>
       </c>
       <c r="E21">
-        <v>0.3840624192104798</v>
+        <v>0.1606725907553965</v>
       </c>
       <c r="F21">
-        <v>0.8901787904544705</v>
+        <v>0.6107344452886565</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.491449755961384</v>
+        <v>0.4768626933547466</v>
       </c>
       <c r="N21">
-        <v>0.4343287167844068</v>
+        <v>0.9239360518294504</v>
       </c>
       <c r="O21">
-        <v>2.423217130456152</v>
+        <v>1.918546982150332</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.668600060589938</v>
+        <v>1.144484112123337</v>
       </c>
       <c r="C22">
-        <v>0.7781720589559598</v>
+        <v>0.2562553624709665</v>
       </c>
       <c r="D22">
-        <v>0.05127137942833571</v>
+        <v>0.01947497517278407</v>
       </c>
       <c r="E22">
-        <v>0.4156933929429698</v>
+        <v>0.1673903097266063</v>
       </c>
       <c r="F22">
-        <v>0.9539743138194723</v>
+        <v>0.6225717856962802</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.608352810723005</v>
+        <v>0.5083197299137794</v>
       </c>
       <c r="N22">
-        <v>0.4164363586045781</v>
+        <v>0.9160741583198089</v>
       </c>
       <c r="O22">
-        <v>2.58995293936178</v>
+        <v>1.94519551010228</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.532100703512526</v>
+        <v>1.104674295187863</v>
       </c>
       <c r="C23">
-        <v>0.7514511686875096</v>
+        <v>0.2480649063987528</v>
       </c>
       <c r="D23">
-        <v>0.04963098742764771</v>
+        <v>0.01893115670629442</v>
       </c>
       <c r="E23">
-        <v>0.3987139095252559</v>
+        <v>0.1637951056822544</v>
       </c>
       <c r="F23">
-        <v>0.9197233218265097</v>
+        <v>0.6162172640931658</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.545805555275578</v>
+        <v>0.4915242176266617</v>
       </c>
       <c r="N23">
-        <v>0.4258629919053192</v>
+        <v>0.9202337802595792</v>
       </c>
       <c r="O23">
-        <v>2.500318933902122</v>
+        <v>1.930851313903247</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.018544317787075</v>
+        <v>0.9537949098548211</v>
       </c>
       <c r="C24">
-        <v>0.6507022342731261</v>
+        <v>0.2169288379442094</v>
       </c>
       <c r="D24">
-        <v>0.04342055784781707</v>
+        <v>0.01686280253329642</v>
       </c>
       <c r="E24">
-        <v>0.3364171683254611</v>
+        <v>0.1503931777314307</v>
       </c>
       <c r="F24">
-        <v>0.7942177123652812</v>
+        <v>0.5929552665679125</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.312067202818426</v>
+        <v>0.4280520422652501</v>
       </c>
       <c r="N24">
-        <v>0.4641772940101774</v>
+        <v>0.9367871061484649</v>
       </c>
       <c r="O24">
-        <v>2.174282840200391</v>
+        <v>1.879184927966719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.470153623911983</v>
+        <v>0.7908543311912695</v>
       </c>
       <c r="C25">
-        <v>0.5426974310775563</v>
+        <v>0.1831033339350938</v>
       </c>
       <c r="D25">
-        <v>0.03671839087825646</v>
+        <v>0.01461391480474106</v>
       </c>
       <c r="E25">
-        <v>0.2727463891828208</v>
+        <v>0.1363845327678774</v>
       </c>
       <c r="F25">
-        <v>0.6664978309317604</v>
+        <v>0.5695715863173945</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.065300566506252</v>
+        <v>0.3598806770491976</v>
       </c>
       <c r="N25">
-        <v>0.5105695713867391</v>
+        <v>0.9563463693884628</v>
       </c>
       <c r="O25">
-        <v>1.847089436525664</v>
+        <v>1.829095709864845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6707215716073449</v>
+        <v>2.069509956242712</v>
       </c>
       <c r="C2">
-        <v>0.1579930342811906</v>
+        <v>0.4634666333041082</v>
       </c>
       <c r="D2">
-        <v>0.01294316665136108</v>
+        <v>0.03177258665969873</v>
       </c>
       <c r="E2">
-        <v>0.1264417977370798</v>
+        <v>0.2282035592421252</v>
       </c>
       <c r="F2">
-        <v>0.5538072680917523</v>
+        <v>0.5778034741914624</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.309925283911106</v>
+        <v>0.8869464515185541</v>
       </c>
       <c r="N2">
-        <v>0.9722120263364395</v>
+        <v>0.5486211300581303</v>
       </c>
       <c r="O2">
-        <v>1.797013954961699</v>
+        <v>1.623366533136078</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5892113537390742</v>
+        <v>1.799209899029137</v>
       </c>
       <c r="C3">
-        <v>0.1408492153979637</v>
+        <v>0.4098291729382026</v>
       </c>
       <c r="D3">
-        <v>0.01180183988999062</v>
+        <v>0.02841033232238743</v>
       </c>
       <c r="E3">
-        <v>0.1199290195625125</v>
+        <v>0.1991676610746609</v>
       </c>
       <c r="F3">
-        <v>0.5440222806960406</v>
+        <v>0.5204705791923701</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2762130393736442</v>
+        <v>0.7675938786252487</v>
       </c>
       <c r="N3">
-        <v>0.9838772478457471</v>
+        <v>0.5766292956862102</v>
       </c>
       <c r="O3">
-        <v>1.778239503835522</v>
+        <v>1.480729871248116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5391197371739906</v>
+        <v>1.633627688747538</v>
       </c>
       <c r="C4">
-        <v>0.1302612413028328</v>
+        <v>0.3768875490000028</v>
       </c>
       <c r="D4">
-        <v>0.01109670045016387</v>
+        <v>0.02633974364188063</v>
       </c>
       <c r="E4">
-        <v>0.1160393710671954</v>
+        <v>0.1818157130093923</v>
       </c>
       <c r="F4">
-        <v>0.5384551950288667</v>
+        <v>0.4864683258750873</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2555826412098554</v>
+        <v>0.6948924769857356</v>
       </c>
       <c r="N4">
-        <v>0.9914898772992515</v>
+        <v>0.5948582257782071</v>
       </c>
       <c r="O4">
-        <v>1.768167780096121</v>
+        <v>1.397054923503902</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5186967731641516</v>
+        <v>1.566218713475081</v>
       </c>
       <c r="C5">
-        <v>0.1259312547790046</v>
+        <v>0.3634567328122671</v>
       </c>
       <c r="D5">
-        <v>0.01080827466468648</v>
+        <v>0.02549429433204509</v>
       </c>
       <c r="E5">
-        <v>0.1144815140420974</v>
+        <v>0.1748518158624677</v>
       </c>
       <c r="F5">
-        <v>0.5362971772272189</v>
+        <v>0.4728905805772072</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2471929050606434</v>
+        <v>0.6653894650096674</v>
       </c>
       <c r="N5">
-        <v>0.994705237091658</v>
+        <v>0.6025371797663013</v>
       </c>
       <c r="O5">
-        <v>1.764428586232015</v>
+        <v>1.363865589555246</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5153049630231692</v>
+        <v>1.55502873912738</v>
       </c>
       <c r="C6">
-        <v>0.1252113452438266</v>
+        <v>0.3612260084707088</v>
       </c>
       <c r="D6">
-        <v>0.01076031742011807</v>
+        <v>0.02535380408485466</v>
       </c>
       <c r="E6">
-        <v>0.1142244687087199</v>
+        <v>0.1737015856117665</v>
       </c>
       <c r="F6">
-        <v>0.5359455132181949</v>
+        <v>0.4706521642993948</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2458008404967487</v>
+        <v>0.6604973246820336</v>
       </c>
       <c r="N6">
-        <v>0.9952459781507095</v>
+        <v>0.6038271432086582</v>
       </c>
       <c r="O6">
-        <v>1.763829719546152</v>
+        <v>1.358407364771324</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5388443462122723</v>
+        <v>1.63271835326259</v>
       </c>
       <c r="C7">
-        <v>0.1302029072920448</v>
+        <v>0.3767064501324739</v>
       </c>
       <c r="D7">
-        <v>0.01109281496765391</v>
+        <v>0.02632834852044752</v>
       </c>
       <c r="E7">
-        <v>0.1160182514466328</v>
+        <v>0.1817213776117867</v>
       </c>
       <c r="F7">
-        <v>0.5384256437197976</v>
+        <v>0.486284114209262</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2554694242300357</v>
+        <v>0.6944941185641298</v>
       </c>
       <c r="N7">
-        <v>0.9915327826713778</v>
+        <v>0.5949607839370685</v>
       </c>
       <c r="O7">
-        <v>1.768115874978093</v>
+        <v>1.396603733938178</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6426264640834063</v>
+        <v>1.976212742346235</v>
       </c>
       <c r="C8">
-        <v>0.1520947386414377</v>
+        <v>0.4449710745522566</v>
       </c>
       <c r="D8">
-        <v>0.01255055418335616</v>
+        <v>0.03061448066409156</v>
       </c>
       <c r="E8">
-        <v>0.1241733643581853</v>
+        <v>0.2180853080184662</v>
       </c>
       <c r="F8">
-        <v>0.5503417257165495</v>
+        <v>0.5577714510930818</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2982869307483895</v>
+        <v>0.845658752604038</v>
       </c>
       <c r="N8">
-        <v>0.9761407452748259</v>
+        <v>0.5580586593042796</v>
       </c>
       <c r="O8">
-        <v>1.79023776193705</v>
+        <v>1.573329800139362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8457665818863234</v>
+        <v>2.654289072383619</v>
       </c>
       <c r="C9">
-        <v>0.1945294744799924</v>
+        <v>0.5790158337420337</v>
       </c>
       <c r="D9">
-        <v>0.01537380291156154</v>
+        <v>0.03897722783192137</v>
       </c>
       <c r="E9">
-        <v>0.1410447569340647</v>
+        <v>0.2937872146323812</v>
       </c>
       <c r="F9">
-        <v>0.5772216663375076</v>
+        <v>0.708611525693442</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3828063636020644</v>
+        <v>1.14782576595649</v>
       </c>
       <c r="N9">
-        <v>0.9495302693902303</v>
+        <v>0.4943081589556328</v>
       </c>
       <c r="O9">
-        <v>1.845219442191137</v>
+        <v>1.954389844575587</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9947626019347808</v>
+        <v>3.157414833872565</v>
       </c>
       <c r="C10">
-        <v>0.2253989016716957</v>
+        <v>0.6779808927662998</v>
       </c>
       <c r="D10">
-        <v>0.01742562688303906</v>
+        <v>0.04510604881303237</v>
       </c>
       <c r="E10">
-        <v>0.15399495087199</v>
+        <v>0.3530130979175112</v>
       </c>
       <c r="F10">
-        <v>0.5991339525288168</v>
+        <v>0.8276178086041028</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4452561602039964</v>
+        <v>1.375023440084917</v>
       </c>
       <c r="N10">
-        <v>0.932159991699514</v>
+        <v>0.4533560720881837</v>
       </c>
       <c r="O10">
-        <v>1.892761987288452</v>
+        <v>2.260654446540286</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.062486596629753</v>
+        <v>3.387911943898303</v>
       </c>
       <c r="C11">
-        <v>0.2393744685263073</v>
+        <v>0.7231996587748597</v>
       </c>
       <c r="D11">
-        <v>0.0183540190977638</v>
+        <v>0.04789354446359795</v>
       </c>
       <c r="E11">
-        <v>0.1600109248143298</v>
+        <v>0.38096885365497</v>
       </c>
       <c r="F11">
-        <v>0.6095771854180612</v>
+        <v>0.8839422520134264</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4737466196331468</v>
+        <v>1.47992615724489</v>
       </c>
       <c r="N11">
-        <v>0.9247317984628864</v>
+        <v>0.4361569372860004</v>
       </c>
       <c r="O11">
-        <v>1.915959008154346</v>
+        <v>2.406968139677844</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.088123353767685</v>
+        <v>3.475476750416817</v>
       </c>
       <c r="C12">
-        <v>0.2446568546791639</v>
+        <v>0.7403597551821122</v>
       </c>
       <c r="D12">
-        <v>0.01870484080906465</v>
+        <v>0.04894925302909314</v>
       </c>
       <c r="E12">
-        <v>0.1623072798199132</v>
+        <v>0.39172183774172</v>
       </c>
       <c r="F12">
-        <v>0.6136004393797947</v>
+        <v>0.9056224611445032</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4845471258391285</v>
+        <v>1.519910761870563</v>
       </c>
       <c r="N12">
-        <v>0.9219871133193962</v>
+        <v>0.4298637718851808</v>
       </c>
       <c r="O12">
-        <v>1.924970030011679</v>
+        <v>2.463494709770515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.082602427867755</v>
+        <v>3.456604828621948</v>
       </c>
       <c r="C13">
-        <v>0.2435196400684845</v>
+        <v>0.7366622503702729</v>
       </c>
       <c r="D13">
-        <v>0.01862931835413661</v>
+        <v>0.04872187709523956</v>
       </c>
       <c r="E13">
-        <v>0.1618119031397782</v>
+        <v>0.3893982180895819</v>
       </c>
       <c r="F13">
-        <v>0.6127309027530998</v>
+        <v>0.9009369950554174</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4822205187690543</v>
+        <v>1.511287155316637</v>
       </c>
       <c r="N13">
-        <v>0.9225751950130245</v>
+        <v>0.4312091061716359</v>
       </c>
       <c r="O13">
-        <v>1.92301924019452</v>
+        <v>2.451268915811738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.064595930777159</v>
+        <v>3.395110045309877</v>
       </c>
       <c r="C14">
-        <v>0.2398092523784214</v>
+        <v>0.7246106448960745</v>
       </c>
       <c r="D14">
-        <v>0.01838289637426982</v>
+        <v>0.04798039399461373</v>
       </c>
       <c r="E14">
-        <v>0.1601994802296574</v>
+        <v>0.3818500388125301</v>
       </c>
       <c r="F14">
-        <v>0.6099068038609232</v>
+        <v>0.8857186325581807</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4746349473382168</v>
+        <v>1.483210272788284</v>
       </c>
       <c r="N14">
-        <v>0.9245046239218837</v>
+        <v>0.4356347052731522</v>
       </c>
       <c r="O14">
-        <v>1.916695798392567</v>
+        <v>2.411595458141818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.053565251177645</v>
+        <v>3.357480722986338</v>
       </c>
       <c r="C15">
-        <v>0.2375352427937401</v>
+        <v>0.7172337257774473</v>
       </c>
       <c r="D15">
-        <v>0.01823185873078614</v>
+        <v>0.04752623997404015</v>
       </c>
       <c r="E15">
-        <v>0.1592142078853698</v>
+        <v>0.3772489338239708</v>
       </c>
       <c r="F15">
-        <v>0.6081859078227723</v>
+        <v>0.8764438470392122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4699901019325807</v>
+        <v>1.46604742970554</v>
       </c>
       <c r="N15">
-        <v>0.9256953409738102</v>
+        <v>0.4383745718764658</v>
       </c>
       <c r="O15">
-        <v>1.912852078020649</v>
+        <v>2.387443861204218</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9903354920342622</v>
+        <v>3.142387901400127</v>
       </c>
       <c r="C16">
-        <v>0.2244841974915346</v>
+        <v>0.6750304213439335</v>
       </c>
       <c r="D16">
-        <v>0.01736485189061909</v>
+        <v>0.04492388704163375</v>
       </c>
       <c r="E16">
-        <v>0.1536043294146765</v>
+        <v>0.3512082689454203</v>
       </c>
       <c r="F16">
-        <v>0.5984610503703323</v>
+        <v>0.8239839725409723</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4433958892783068</v>
+        <v>1.36820210000316</v>
       </c>
       <c r="N16">
-        <v>0.9326549809653102</v>
+        <v>0.454510035990161</v>
       </c>
       <c r="O16">
-        <v>1.891277687039491</v>
+        <v>2.251242841317776</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9515313190291863</v>
+        <v>3.010883353142447</v>
       </c>
       <c r="C17">
-        <v>0.2164604706176476</v>
+        <v>0.6491965766237797</v>
       </c>
       <c r="D17">
-        <v>0.01683167659034979</v>
+        <v>0.04332744094229923</v>
       </c>
       <c r="E17">
-        <v>0.1501950311697868</v>
+        <v>0.3355070895516974</v>
       </c>
       <c r="F17">
-        <v>0.5926170893340554</v>
+        <v>0.7923871187468734</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4271021592477098</v>
+        <v>1.308599560956765</v>
       </c>
       <c r="N17">
-        <v>0.9370458749668131</v>
+        <v>0.4647846175011168</v>
       </c>
       <c r="O17">
-        <v>1.878445309108457</v>
+        <v>2.169557864463343</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9292070599042859</v>
+        <v>2.935395088891767</v>
       </c>
       <c r="C18">
-        <v>0.2118391327818756</v>
+        <v>0.6343558404228418</v>
       </c>
       <c r="D18">
-        <v>0.0165245396403364</v>
+        <v>0.04240914233825066</v>
       </c>
       <c r="E18">
-        <v>0.1482458291065711</v>
+        <v>0.3265702220289626</v>
       </c>
       <c r="F18">
-        <v>0.5893005104469751</v>
+        <v>0.7744170064777904</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4177381277398808</v>
+        <v>1.274461155650016</v>
       </c>
       <c r="N18">
-        <v>0.9396159752171513</v>
+        <v>0.470827990461423</v>
       </c>
       <c r="O18">
-        <v>1.87121214483787</v>
+        <v>2.123225536097095</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9216475976370475</v>
+        <v>2.909860393525946</v>
       </c>
       <c r="C19">
-        <v>0.2102733511788983</v>
+        <v>0.6293339146969572</v>
       </c>
       <c r="D19">
-        <v>0.01642046854276913</v>
+        <v>0.04209820466673619</v>
       </c>
       <c r="E19">
-        <v>0.1475878699329058</v>
+        <v>0.3235598954649603</v>
       </c>
       <c r="F19">
-        <v>0.5881852444154134</v>
+        <v>0.7683665261914143</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4145689474829481</v>
+        <v>1.262926021432037</v>
       </c>
       <c r="N19">
-        <v>0.940493819613117</v>
+        <v>0.4728967247260201</v>
       </c>
       <c r="O19">
-        <v>1.868788450514785</v>
+        <v>2.107646609007389</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9556626267054185</v>
+        <v>3.024866417085036</v>
       </c>
       <c r="C20">
-        <v>0.2173152638370084</v>
+        <v>0.6519446927403294</v>
       </c>
       <c r="D20">
-        <v>0.01688848267304621</v>
+        <v>0.04349739055468405</v>
       </c>
       <c r="E20">
-        <v>0.1505567401156824</v>
+        <v>0.3371686288561833</v>
       </c>
       <c r="F20">
-        <v>0.5932345592257775</v>
+        <v>0.7957293332332114</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.428835858387572</v>
+        <v>1.314929251444624</v>
       </c>
       <c r="N20">
-        <v>0.9365738428155481</v>
+        <v>0.463676934065731</v>
       </c>
       <c r="O20">
-        <v>1.879796045364685</v>
+        <v>2.178185219357601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.069885123074243</v>
+        <v>3.413164542804793</v>
       </c>
       <c r="C21">
-        <v>0.2408993523891922</v>
+        <v>0.7281494282349001</v>
       </c>
       <c r="D21">
-        <v>0.01845529675117774</v>
+        <v>0.04819817975178609</v>
       </c>
       <c r="E21">
-        <v>0.1606725907553965</v>
+        <v>0.3840624192104656</v>
       </c>
       <c r="F21">
-        <v>0.6107344452886565</v>
+        <v>0.8901787904544705</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4768626933547466</v>
+        <v>1.491449755961398</v>
       </c>
       <c r="N21">
-        <v>0.9239360518294504</v>
+        <v>0.434328716784357</v>
       </c>
       <c r="O21">
-        <v>1.918546982150332</v>
+        <v>2.423217130456123</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.144484112123337</v>
+        <v>3.668600060589995</v>
       </c>
       <c r="C22">
-        <v>0.2562553624709665</v>
+        <v>0.7781720589558745</v>
       </c>
       <c r="D22">
-        <v>0.01947497517278407</v>
+        <v>0.05127137942839965</v>
       </c>
       <c r="E22">
-        <v>0.1673903097266063</v>
+        <v>0.415693392942984</v>
       </c>
       <c r="F22">
-        <v>0.6225717856962802</v>
+        <v>0.9539743138194723</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5083197299137794</v>
+        <v>1.608352810723019</v>
       </c>
       <c r="N22">
-        <v>0.9160741583198089</v>
+        <v>0.4164363586046349</v>
       </c>
       <c r="O22">
-        <v>1.94519551010228</v>
+        <v>2.58995293936178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.104674295187863</v>
+        <v>3.532100703512526</v>
       </c>
       <c r="C23">
-        <v>0.2480649063987528</v>
+        <v>0.7514511686879644</v>
       </c>
       <c r="D23">
-        <v>0.01893115670629442</v>
+        <v>0.04963098742757666</v>
       </c>
       <c r="E23">
-        <v>0.1637951056822544</v>
+        <v>0.3987139095252772</v>
       </c>
       <c r="F23">
-        <v>0.6162172640931658</v>
+        <v>0.9197233218265239</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4915242176266617</v>
+        <v>1.545805555275535</v>
       </c>
       <c r="N23">
-        <v>0.9202337802595792</v>
+        <v>0.4258629919053263</v>
       </c>
       <c r="O23">
-        <v>1.930851313903247</v>
+        <v>2.50031893390215</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9537949098548211</v>
+        <v>3.018544317787075</v>
       </c>
       <c r="C24">
-        <v>0.2169288379442094</v>
+        <v>0.6507022342732967</v>
       </c>
       <c r="D24">
-        <v>0.01686280253329642</v>
+        <v>0.04342055784776022</v>
       </c>
       <c r="E24">
-        <v>0.1503931777314307</v>
+        <v>0.3364171683254327</v>
       </c>
       <c r="F24">
-        <v>0.5929552665679125</v>
+        <v>0.7942177123652812</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4280520422652501</v>
+        <v>1.312067202818412</v>
       </c>
       <c r="N24">
-        <v>0.9367871061484649</v>
+        <v>0.4641772940101205</v>
       </c>
       <c r="O24">
-        <v>1.879184927966719</v>
+        <v>2.174282840200334</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7908543311912695</v>
+        <v>2.470153623911983</v>
       </c>
       <c r="C25">
-        <v>0.1831033339350938</v>
+        <v>0.5426974310774426</v>
       </c>
       <c r="D25">
-        <v>0.01461391480474106</v>
+        <v>0.03671839087836304</v>
       </c>
       <c r="E25">
-        <v>0.1363845327678774</v>
+        <v>0.2727463891828279</v>
       </c>
       <c r="F25">
-        <v>0.5695715863173945</v>
+        <v>0.6664978309317462</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3598806770491976</v>
+        <v>1.065300566506238</v>
       </c>
       <c r="N25">
-        <v>0.9563463693884628</v>
+        <v>0.5105695713867426</v>
       </c>
       <c r="O25">
-        <v>1.829095709864845</v>
+        <v>1.847089436525721</v>
       </c>
     </row>
   </sheetData>
